--- a/bh3/550239457271975005_2021-07-22_18-50-07.xlsx
+++ b/bh3/550239457271975005_2021-07-22_18-50-07.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5012361527</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-28 18:06:18</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44405.754375</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -614,10 +628,8 @@
           <t>5007332871</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-28 15:30:03</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44405.64586805556</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>5007332871</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:31:44</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44405.02203703704</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>5003839673</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-27 17:25:49</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44404.72626157408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-26 21:44:13</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44403.90570601852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:24:43</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44402.93383101852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:24:00</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44402.93333333333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1040,10 +1042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:50:41</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44402.91019675926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1111,10 +1111,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:06:22</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44402.83775462963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1178,10 +1176,8 @@
           <t>4989228086</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:23:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44402.80793981482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1241,10 +1237,8 @@
           <t>4984528977</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:21:42</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44402.80673611111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1304,10 +1298,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:19:01</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44402.80487268518</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1367,10 +1359,8 @@
           <t>4986321321</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-25 12:01:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44402.50118055556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1446,10 +1436,8 @@
           <t>4986321321</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-25 11:47:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44402.49108796296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1517,10 +1505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-25 08:03:59</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44402.33609953704</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1588,10 +1574,8 @@
           <t>4984541214</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:46:46</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44402.07414351852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1659,10 +1643,8 @@
           <t>4984528977</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:44:52</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44402.07282407407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1730,10 +1712,8 @@
           <t>4984523017</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-25 01:43:47</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44402.07207175926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1801,10 +1781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-24 11:32:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44401.48078703704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1872,10 +1850,8 @@
           <t>4978009100</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:44:06</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44401.36395833334</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1948,10 +1924,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:43:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44401.3633449074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2024,10 +1998,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:05:16</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44400.96199074074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2103,10 +2075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:58:54</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44400.87423611111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2166,10 +2136,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:50:15</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44400.78489583333</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2245,10 +2213,8 @@
           <t>4969782843</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:09</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44400.78204861111</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2312,10 +2278,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:14</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44400.7605787037</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2391,10 +2355,8 @@
           <t>4974026772</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:52</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44400.76032407407</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2470,10 +2432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-23 17:26:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44400.72641203704</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2541,10 +2501,8 @@
           <t>4969782843</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-23 16:12:33</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44400.67538194444</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2620,10 +2578,8 @@
           <t>4969782843</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-23 15:52:07</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44400.66119212963</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2695,10 +2651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-23 15:07:43</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44400.6303587963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2766,10 +2720,8 @@
           <t>4969874315</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-23 14:00:33</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44400.58371527777</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2833,10 +2785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:57:38</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44400.58168981481</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2912,10 +2862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:26:54</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44400.56034722222</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -2979,10 +2927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-23 13:17:52</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44400.55407407408</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3046,10 +2992,8 @@
           <t>4967157953</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-23 12:45:43</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44400.53174768519</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3121,10 +3065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-23 11:14:21</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44400.46829861111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3197,10 +3139,8 @@
           <t>4967897464</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-23 10:39:36</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44400.44416666667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3268,10 +3208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-23 09:35:55</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44400.39994212963</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3335,10 +3273,8 @@
           <t>4967897464</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-23 09:19:06</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44400.38826388889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3414,10 +3350,8 @@
           <t>4970740730</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-23 09:11:48</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44400.38319444445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3489,10 +3423,8 @@
           <t>4970561415</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-23 08:30:35</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44400.35457175926</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3564,10 +3496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-23 08:23:28</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44400.34962962963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3635,10 +3565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:45:48</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44400.32347222222</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3706,10 +3634,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:31:47</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44400.31373842592</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3785,10 +3711,8 @@
           <t>4969653419</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:30:01</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44400.31251157408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3864,10 +3788,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:28:45</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44400.31163194445</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3940,10 +3862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-23 07:03:35</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44400.29415509259</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4009,10 +3929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-23 05:39:42</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44400.23590277778</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4080,10 +3998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-23 03:13:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44400.1346412037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4151,10 +4067,8 @@
           <t>4969908127</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:16:01</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44400.09445601852</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4230,10 +4144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:13:52</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44400.09296296296</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4309,10 +4221,8 @@
           <t>4969888039</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:12:40</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44400.09212962963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4388,10 +4298,8 @@
           <t>4969888039</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:07:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44400.0887037037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4459,10 +4367,8 @@
           <t>4969882937</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:06:41</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44400.08797453704</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4530,10 +4436,8 @@
           <t>4969874315</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-23 02:03:39</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44400.08586805555</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4601,10 +4505,8 @@
           <t>4969858579</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-23 01:57:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44400.0817824074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4672,10 +4574,8 @@
           <t>4969782843</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-23 01:33:26</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44400.06488425926</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4739,10 +4639,8 @@
           <t>4969653419</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-23 01:01:32</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44400.04273148148</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4818,10 +4716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:21:29</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44400.01491898148</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -4893,10 +4789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:06:24</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44400.00444444444</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4964,10 +4858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:02:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44400.00186342592</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5043,10 +4935,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:59:26</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44399.99960648148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5118,10 +5008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:59:08</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44399.99939814815</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5194,10 +5082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:55:09</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44399.99663194444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5273,10 +5159,8 @@
           <t>4967157953</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:54:14</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44399.99599537037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5340,10 +5224,8 @@
           <t>4969230634</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:48:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44399.99231481482</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5419,10 +5301,8 @@
           <t>4969222044</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:47:57</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44399.99163194445</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5498,10 +5378,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:47:08</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44399.99106481481</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5577,10 +5455,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:44:59</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44399.98957175926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5656,10 +5532,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:43:59</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44399.98887731481</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5735,10 +5609,8 @@
           <t>4969141290</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:36:55</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44399.98396990741</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5810,10 +5682,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:29:30</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44399.97881944444</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5885,10 +5755,8 @@
           <t>4967157953</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:28:22</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44399.97803240741</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5960,10 +5828,8 @@
           <t>4969057451</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:25:43</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44399.97619212963</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6027,10 +5893,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:14:11</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44399.96818287037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6106,10 +5970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:11:45</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44399.96649305556</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6177,10 +6039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:07:40</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44399.96365740741</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6244,10 +6104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:05:31</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44399.96216435185</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6311,10 +6169,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-22 23:03:58</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44399.96108796296</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6390,10 +6246,8 @@
           <t>4968824011</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:56:34</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44399.95594907407</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6465,10 +6319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:49:47</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44399.95123842593</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6540,10 +6392,8 @@
           <t>4967897162</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:44:50</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44399.94780092593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6615,10 +6465,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:42:48</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44399.94638888889</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6686,10 +6534,8 @@
           <t>4968713730</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:42:33</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44399.94621527778</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6753,10 +6599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:37:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44399.94241898148</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6820,10 +6664,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:31:11</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44399.93832175926</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6887,10 +6729,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:20:57</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44399.93121527778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6966,10 +6806,8 @@
           <t>4968186722</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:19:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44399.92986111111</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7045,10 +6883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:10:38</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44399.92405092593</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7112,10 +6948,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:10:00</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44399.92361111111</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7179,10 +7013,8 @@
           <t>4968175111</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:05:53</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44399.92075231481</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7258,10 +7090,8 @@
           <t>4968175111</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-22 22:03:52</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44399.91935185185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7337,10 +7167,8 @@
           <t>4968186722</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:59:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44399.91618055556</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7404,10 +7232,8 @@
           <t>4968175111</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:57:04</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44399.91462962963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7483,10 +7309,8 @@
           <t>4967430712</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:56:48</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44399.91444444445</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7550,10 +7374,8 @@
           <t>4968175111</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:54:41</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44399.91297453704</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7629,10 +7451,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:51:35</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44399.91082175926</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7696,10 +7516,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:45:14</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44399.90641203704</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7775,10 +7593,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:43:58</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44399.90553240741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7854,10 +7670,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:43:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44399.90511574074</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7933,10 +7747,8 @@
           <t>4968186722</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:42:58</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44399.90483796296</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8012,10 +7824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:42:55</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44399.90480324074</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8079,10 +7889,8 @@
           <t>4968135805</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:40:59</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44399.90346064815</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8150,10 +7958,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:39:43</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44399.90258101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8217,10 +8023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:39:30</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44399.90243055556</v>
       </c>
       <c r="I107" t="n">
         <v>7</v>
@@ -8296,10 +8100,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:39:07</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44399.90216435185</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8367,10 +8169,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:38:40</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44399.90185185185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8438,10 +8238,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:37:51</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44399.90128472223</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8517,10 +8315,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:36:41</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44399.90047453704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8596,10 +8392,8 @@
           <t>4968186722</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:36:25</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44399.90028935186</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8663,10 +8457,8 @@
           <t>4967897162</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:35:50</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44399.89988425926</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8738,10 +8530,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:35:47</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44399.89984953704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8809,10 +8599,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:35:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44399.89942129629</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8880,10 +8668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:34:36</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44399.89902777778</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8947,10 +8733,8 @@
           <t>4968175111</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:34:16</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44399.89879629629</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9026,10 +8810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:32:51</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44399.8978125</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9097,10 +8879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:31:30</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44399.896875</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9160,10 +8940,8 @@
           <t>4967671266</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:30:39</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44399.89628472222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9239,10 +9017,8 @@
           <t>4968126432</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:28:58</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44399.89511574074</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9306,10 +9082,8 @@
           <t>4968135805</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:28:52</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44399.8950462963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9385,10 +9159,8 @@
           <t>4968089241</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:24:26</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44399.89196759259</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9456,10 +9228,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:24:15</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44399.89184027778</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9535,10 +9305,8 @@
           <t>4968072294</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:21:44</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44399.89009259259</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9606,10 +9374,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:16:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44399.88662037037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9677,10 +9443,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:10:49</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44399.88251157408</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9756,10 +9520,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:10:05</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44399.88200231481</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9835,10 +9597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:09:58</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44399.8819212963</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9902,10 +9662,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:07:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44399.8799074074</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9981,10 +9739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:02:30</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44399.87673611111</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10060,10 +9816,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-22 21:00:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44399.87537037037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10135,10 +9889,8 @@
           <t>4967902779</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:59:39</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44399.87475694445</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10206,10 +9958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:59:32</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44399.87467592592</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10281,10 +10031,8 @@
           <t>4967897464</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:58:50</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44399.87418981481</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10360,10 +10108,8 @@
           <t>4967897162</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:58:43</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44399.8741087963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10435,10 +10181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:56:53</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44399.87283564815</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10502,10 +10246,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:50:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44399.86827546296</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10581,10 +10323,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:46:27</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44399.86559027778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10652,10 +10392,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:44:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44399.86424768518</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10723,10 +10461,8 @@
           <t>4967779791</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:43:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44399.86333333333</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10791,10 +10527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:57</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44399.86246527778</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10861,10 +10595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:49</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44399.86237268519</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -10928,10 +10660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:42</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44399.86229166666</v>
       </c>
       <c r="I144" t="n">
         <v>5</v>
@@ -10995,10 +10725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:36</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44399.86222222223</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -11069,10 +10797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:30</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44399.86215277778</v>
       </c>
       <c r="I146" t="n">
         <v>6</v>
@@ -11136,10 +10862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:41:01</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44399.86181712963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11207,10 +10931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:40:04</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44399.86115740741</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11278,10 +11000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:40:00</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44399.86111111111</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11357,10 +11077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:38:47</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44399.8602662037</v>
       </c>
       <c r="I150" t="n">
         <v>2</v>
@@ -11429,10 +11147,8 @@
           <t>4967534852</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:37:32</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44399.85939814815</v>
       </c>
       <c r="I151" t="n">
         <v>4</v>
@@ -11496,10 +11212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:35:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44399.85818287037</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11575,10 +11289,8 @@
           <t>4967430712</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:35:45</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44399.85815972222</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11654,10 +11366,8 @@
           <t>4967671266</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:34:59</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44399.85762731481</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11721,10 +11431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:33:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44399.8562962963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11788,10 +11496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:28:41</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44399.85325231482</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11859,10 +11565,8 @@
           <t>4967671266</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:26:36</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44399.85180555555</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11934,10 +11638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:26:14</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44399.85155092592</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12001,10 +11703,8 @@
           <t>4967657038</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:24:36</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44399.85041666667</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12076,10 +11776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:23:30</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44399.84965277778</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12151,10 +11849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:22:40</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44399.84907407407</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12230,10 +11926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:22:39</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44399.8490625</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12310,10 +12004,8 @@
           <t>4967378777</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:20:48</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44399.84777777778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12381,10 +12073,8 @@
           <t>4967617926</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:19:08</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44399.84662037037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12449,10 +12139,8 @@
           <t>4967596925</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:15:28</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44399.84407407408</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12517,10 +12205,8 @@
           <t>4967582029</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:13:31</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44399.84271990741</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12592,10 +12278,8 @@
           <t>4967534852</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:10:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44399.84060185185</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12671,10 +12355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:09:56</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44399.84023148148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12751,10 +12433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:09:11</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44399.83971064815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12814,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:08:31</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44399.83924768519</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12891,10 +12569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:07:22</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44399.83844907407</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12970,10 +12646,8 @@
           <t>4967534852</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:07:22</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44399.83844907407</v>
       </c>
       <c r="I172" t="n">
         <v>5</v>
@@ -13045,10 +12719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:04:29</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44399.83644675926</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13124,10 +12796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:03:39</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44399.83586805555</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13203,10 +12873,8 @@
           <t>4967507151</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:03:35</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44399.83582175926</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13282,10 +12950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:03:13</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44399.83556712963</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13357,10 +13023,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:03:05</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44399.83547453704</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13439,10 +13103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:02:37</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44399.83515046296</v>
       </c>
       <c r="I178" t="n">
         <v>41</v>
@@ -13518,10 +13180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:02:34</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44399.83511574074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13589,10 +13249,8 @@
           <t>4967280861</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:02:32</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44399.83509259259</v>
       </c>
       <c r="I180" t="n">
         <v>7</v>
@@ -13656,10 +13314,8 @@
           <t>4967498903</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-22 20:02:17</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44399.83491898148</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13727,10 +13383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:59:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44399.83311342593</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13806,10 +13460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:59:35</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44399.83304398148</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13881,10 +13533,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:57:52</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44399.83185185185</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13960,10 +13610,8 @@
           <t>4967470864</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:57:37</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44399.83167824074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14031,10 +13679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:57:28</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44399.83157407407</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14106,10 +13752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:56:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44399.83113425926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14183,10 +13827,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:56:19</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44399.83077546296</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14262,10 +13904,8 @@
           <t>4967001776</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:55:09</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44399.82996527778</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14341,10 +13981,8 @@
           <t>4967434286</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:53:33</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44399.82885416667</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14404,10 +14042,8 @@
           <t>4967430712</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:51:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44399.82775462963</v>
       </c>
       <c r="I191" t="n">
         <v>5</v>
@@ -14483,10 +14119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:51:53</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44399.82769675926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14563,10 +14197,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:51:30</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44399.82743055555</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14642,10 +14274,8 @@
           <t>4967378777</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:51:19</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44399.82730324074</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14709,10 +14339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:51:08</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44399.82717592592</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14780,10 +14408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:48:41</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44399.82547453704</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14851,10 +14477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:48:21</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44399.82524305556</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14930,10 +14554,8 @@
           <t>4967378777</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:46:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44399.82399305556</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15001,10 +14623,8 @@
           <t>4967280861</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:46:31</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44399.8239699074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15068,10 +14688,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:44:29</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44399.82255787037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15147,10 +14765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:44:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44399.82230324074</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15219,10 +14835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:43:24</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44399.82180555556</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15282,10 +14896,8 @@
           <t>4967127094</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:43:12</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44399.82166666666</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15357,10 +14969,8 @@
           <t>4967127094</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:41:52</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44399.82074074074</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15420,10 +15030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:41:12</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44399.82027777778</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15499,10 +15107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:40:43</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44399.81994212963</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15570,10 +15176,8 @@
           <t>4967341909</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:40:19</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44399.81966435185</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15650,10 +15254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:39:15</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44399.81892361111</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15721,10 +15323,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:38:57</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44399.81871527778</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15796,10 +15396,8 @@
           <t>4967327703</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:38:34</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44399.81844907408</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15859,10 +15457,8 @@
           <t>4967127094</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:37:31</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44399.81771990741</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15934,10 +15530,8 @@
           <t>4967085307</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:37:21</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44399.81760416667</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16013,10 +15607,8 @@
           <t>4967225571</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:36:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44399.8168287037</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16088,10 +15680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:35:50</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44399.81655092593</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -16159,10 +15749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:34:55</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44399.81591435185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16230,10 +15818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:33:38</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44399.81502314815</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16297,10 +15883,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:33:32</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44399.8149537037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16368,10 +15952,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:33:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44399.8146412037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16439,10 +16021,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:32:28</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44399.81421296296</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16510,10 +16090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:32:04</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44399.81393518519</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16582,10 +16160,8 @@
           <t>4967285214</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:31:30</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44399.81354166667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16661,10 +16237,8 @@
           <t>4967280861</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:31:26</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44399.81349537037</v>
       </c>
       <c r="I222" t="n">
         <v>7</v>
@@ -16728,10 +16302,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:29:57</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44399.81246527778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16795,10 +16367,8 @@
           <t>4967271378</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:29:54</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44399.81243055555</v>
       </c>
       <c r="I224" t="n">
         <v>4</v>
@@ -16871,10 +16441,8 @@
           <t>4967271161</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:29:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44399.81237268518</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16934,10 +16502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:29:06</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44399.811875</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17001,10 +16567,8 @@
           <t>4967127094</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:28:49</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44399.81167824074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17064,10 +16628,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:28:38</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44399.81155092592</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17135,10 +16697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:51</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44399.8103125</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17202,10 +16762,8 @@
           <t>4967245864</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:48</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44399.81027777777</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17269,10 +16827,8 @@
           <t>4967250634</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:42</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44399.81020833334</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17332,10 +16888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44399.81018518518</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17411,10 +16965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:33</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44399.81010416667</v>
       </c>
       <c r="I233" t="n">
         <v>38</v>
@@ -17531,10 +17083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:26</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44399.81002314815</v>
       </c>
       <c r="I234" t="n">
         <v>4</v>
@@ -17598,10 +17148,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:26:14</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44399.80988425926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17669,10 +17217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:25:54</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44399.80965277777</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17749,10 +17295,8 @@
           <t>4967237935</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:25:35</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44399.80943287037</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17828,10 +17372,8 @@
           <t>4967229034</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:59</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44399.8090162037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17899,10 +17441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:50</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44399.80891203704</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17978,10 +17518,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44399.80891203704</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18053,10 +17591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:18</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44399.80854166667</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18132,10 +17668,8 @@
           <t>4967230326</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:13</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44399.8084837963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18203,10 +17737,8 @@
           <t>4967227095</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:24:11</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44399.80846064815</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18270,10 +17802,8 @@
           <t>4967225571</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:23:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44399.80802083333</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18345,10 +17875,8 @@
           <t>4967215637</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:22:06</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44399.80701388889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18424,10 +17952,8 @@
           <t>4967215522</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:22:02</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44399.80696759259</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18499,10 +18025,8 @@
           <t>4967106070</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:21:49</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44399.80681712963</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18570,10 +18094,8 @@
           <t>4967199773</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:21:13</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44399.80640046296</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18649,10 +18171,8 @@
           <t>4967016316</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:21:12</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44399.80638888889</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18720,10 +18240,8 @@
           <t>4967199563</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:21:08</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44399.80634259259</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18795,10 +18313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:21:00</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44399.80625</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18875,10 +18391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:20:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44399.80574074074</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18951,10 +18465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:20:00</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44399.80555555555</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19022,10 +18534,8 @@
           <t>4967106070</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:19:35</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44399.8052662037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19101,10 +18611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:19:20</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44399.80509259259</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19168,10 +18676,8 @@
           <t>4967016316</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:18:27</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44399.80447916667</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19239,10 +18745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:17:54</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44399.80409722222</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19318,10 +18822,8 @@
           <t>4967001776</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:17:22</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44399.80372685185</v>
       </c>
       <c r="I258" t="n">
         <v>6</v>
@@ -19393,10 +18895,8 @@
           <t>4967169522</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:17:01</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44399.8034837963</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -19460,10 +18960,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:16:25</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44399.80306712963</v>
       </c>
       <c r="I260" t="n">
         <v>13</v>
@@ -19539,10 +19037,8 @@
           <t>4967001776</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:15:59</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44399.80276620371</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19614,10 +19110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:15:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44399.80263888889</v>
       </c>
       <c r="I262" t="n">
         <v>6</v>
@@ -19685,10 +19179,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:15:38</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44399.80252314815</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19764,10 +19256,8 @@
           <t>4967159647</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:15:17</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44399.80228009259</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19831,10 +19321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:15:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44399.80216435185</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19907,10 +19395,8 @@
           <t>4967161412</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:14:46</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44399.8019212963</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19982,10 +19468,8 @@
           <t>4967157953</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:14:38</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44399.8018287037</v>
       </c>
       <c r="I267" t="n">
         <v>5</v>
@@ -20053,10 +19537,8 @@
           <t>4967106070</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:13:41</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44399.80116898148</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20128,10 +19610,8 @@
           <t>4967144307</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:13:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44399.8008912037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20199,10 +19679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:12:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44399.80045138889</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20266,10 +19744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:11:53</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44399.79991898148</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20341,10 +19817,8 @@
           <t>4967129435</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:11:22</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44399.79956018519</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20416,10 +19890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:11:21</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44399.79954861111</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20479,10 +19951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:11:07</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44399.79938657407</v>
       </c>
       <c r="I274" t="n">
         <v>4</v>
@@ -20550,10 +20020,8 @@
           <t>4967127094</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:10:29</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44399.79894675926</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20625,10 +20093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:10:22</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44399.79886574074</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20704,10 +20170,8 @@
           <t>4967106070</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:10:15</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44399.79878472222</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20783,10 +20247,8 @@
           <t>4967126223</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:10:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44399.79872685186</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20858,10 +20320,8 @@
           <t>4967119753</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:10:08</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44399.7987037037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20925,10 +20385,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:52</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44399.79851851852</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -21000,10 +20458,8 @@
           <t>4967118817</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:44</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44399.79842592592</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21075,10 +20531,8 @@
           <t>4967123211</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:43</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44399.79841435186</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21150,10 +20604,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:34</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44399.79831018519</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21217,10 +20669,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:34</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44399.79831018519</v>
       </c>
       <c r="I284" t="n">
         <v>6</v>
@@ -21288,10 +20738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:09:07</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44399.79799768519</v>
       </c>
       <c r="I285" t="n">
         <v>7</v>
@@ -21363,10 +20811,8 @@
           <t>4967113047</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:08:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44399.79787037037</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21438,10 +20884,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:08:37</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44399.79765046296</v>
       </c>
       <c r="I287" t="n">
         <v>4</v>
@@ -21513,10 +20957,8 @@
           <t>4967016569</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:08:32</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44399.79759259259</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21588,10 +21030,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:07:51</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44399.79711805555</v>
       </c>
       <c r="I289" t="n">
         <v>6</v>
@@ -21663,10 +21103,8 @@
           <t>4967102791</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:07:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44399.79674768518</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21734,10 +21172,8 @@
           <t>4967107286</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:07:07</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44399.7966087963</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21809,10 +21245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:55</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44399.79646990741</v>
       </c>
       <c r="I292" t="n">
         <v>9</v>
@@ -21888,10 +21322,8 @@
           <t>4967106070</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:39</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44399.79628472222</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21963,10 +21395,8 @@
           <t>4967105026</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:16</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44399.79601851852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22034,10 +21464,8 @@
           <t>4967095588</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:10</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44399.79594907408</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22109,10 +21537,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:05</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44399.79589120371</v>
       </c>
       <c r="I296" t="n">
         <v>7</v>
@@ -22184,10 +21610,8 @@
           <t>4967084852</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:06:03</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44399.79586805555</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22263,10 +21687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:04:58</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44399.79511574074</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22334,10 +21756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:04:29</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44399.79478009259</v>
       </c>
       <c r="I299" t="n">
         <v>2</v>
@@ -22401,10 +21821,8 @@
           <t>4967085307</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:04:14</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44399.79460648148</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22480,10 +21898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:03:26</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44399.79405092593</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -22560,10 +21976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:02:56</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44399.7937037037</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22635,10 +22049,8 @@
           <t>4967066643</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:02:32</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44399.79342592593</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22714,10 +22126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:01:59</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44399.79304398148</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22793,10 +22203,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:01:00</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44399.79236111111</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22864,10 +22272,8 @@
           <t>4967060375</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:36</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44399.79208333333</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22940,10 +22346,8 @@
           <t>4967033010</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:25</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44399.79195601852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23017,10 +22421,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:18</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44399.791875</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23088,10 +22490,8 @@
           <t>4967049428</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:12</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44399.79180555556</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23167,10 +22567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:08</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44399.79175925926</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23246,10 +22644,8 @@
           <t>4967044173</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:07</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44399.79174768519</v>
       </c>
       <c r="I311" t="n">
         <v>35</v>
@@ -23354,10 +22750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-22 19:00:05</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44399.79172453703</v>
       </c>
       <c r="I312" t="n">
         <v>5</v>
@@ -23431,10 +22825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:59:53</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44399.79158564815</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23498,10 +22890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:59:35</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44399.79137731482</v>
       </c>
       <c r="I314" t="n">
         <v>11</v>
@@ -23573,10 +22963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:59:21</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44399.79121527778</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23644,10 +23032,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:59:20</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44399.7912037037</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23715,10 +23101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:59:15</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44399.79114583333</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23786,10 +23170,8 @@
           <t>4967045875</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44399.79086805556</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23861,10 +23243,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:49</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44399.79084490741</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23932,10 +23312,8 @@
           <t>4967033010</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:40</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44399.79074074074</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24007,10 +23385,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44399.79050925926</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24078,10 +23454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:15</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44399.79045138889</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24157,10 +23531,8 @@
           <t>4967000840</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:58:00</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44399.79027777778</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24236,10 +23608,8 @@
           <t>4967033010</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:46</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44399.79011574074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24313,10 +23683,8 @@
           <t>4967028032</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:37</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44399.79001157408</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24388,10 +23756,8 @@
           <t>4967027969</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:36</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44399.79</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24460,10 +23826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:27</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44399.78989583333</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24527,10 +23891,8 @@
           <t>4967027278</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:20</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44399.78981481482</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24606,10 +23968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:14</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44399.78974537037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24682,10 +24042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:09</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44399.7896875</v>
       </c>
       <c r="I330" t="n">
         <v>6</v>
@@ -24753,10 +24111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:07</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44399.78966435185</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24828,10 +24184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:03</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44399.78961805555</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24907,10 +24261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:57:02</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44399.78960648148</v>
       </c>
       <c r="I333" t="n">
         <v>6</v>
@@ -24978,10 +24330,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:45</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44399.78940972222</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25057,10 +24407,8 @@
           <t>4967016569</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:41</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44399.78936342592</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25120,10 +24468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44399.78934027778</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25191,10 +24537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:38</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44399.7893287037</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25266,10 +24610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:31</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44399.78924768518</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25333,10 +24675,8 @@
           <t>4967012948</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:19</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44399.7891087963</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25409,10 +24749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:18</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44399.78909722222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25480,10 +24818,8 @@
           <t>4967016569</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44399.78908564815</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25547,10 +24883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:14</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44399.78905092592</v>
       </c>
       <c r="I342" t="n">
         <v>75</v>
@@ -25614,10 +24948,8 @@
           <t>4967014263</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:56:08</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44399.78898148148</v>
       </c>
       <c r="I343" t="n">
         <v>4</v>
@@ -25689,10 +25021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:59</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44399.78887731482</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25756,10 +25086,8 @@
           <t>4967000840</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:58</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44399.78886574074</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25835,10 +25163,8 @@
           <t>4967012948</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:35</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44399.78859953704</v>
       </c>
       <c r="I346" t="n">
         <v>9</v>
@@ -25914,10 +25240,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44399.78859953704</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25985,10 +25309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:23</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44399.78846064815</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -26057,10 +25379,8 @@
           <t>4967020444</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:22</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44399.78844907408</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26124,10 +25444,8 @@
           <t>4967016569</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:19</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44399.78841435185</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26187,10 +25505,8 @@
           <t>4967016316</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:13</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44399.78834490741</v>
       </c>
       <c r="I351" t="n">
         <v>21</v>
@@ -26258,10 +25574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:11</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44399.78832175926</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26337,10 +25651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:55:02</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44399.78821759259</v>
       </c>
       <c r="I353" t="n">
         <v>5</v>
@@ -26416,10 +25728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:55</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44399.78813657408</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26487,10 +25797,8 @@
           <t>4967011181</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:51</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44399.78809027778</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26558,10 +25866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:43</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44399.78799768518</v>
       </c>
       <c r="I356" t="n">
         <v>17</v>
@@ -26638,10 +25944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:38</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44399.78793981481</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26717,10 +26021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:37</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44399.78792824074</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26788,10 +26090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:31</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44399.7878587963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26855,10 +26155,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:28</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44399.78782407408</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26934,10 +26232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:21</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44399.78774305555</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27005,10 +26301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:13</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44399.78765046296</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27084,10 +26378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:11</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44399.78762731481</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27151,10 +26443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:03</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44399.78753472222</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27230,10 +26520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:54:01</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44399.78751157408</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27316,10 +26604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:56</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44399.78745370371</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27387,10 +26673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:54</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44399.78743055555</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27467,10 +26751,8 @@
           <t>4966998720</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:52</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44399.78740740741</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27538,10 +26820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:48</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44399.78736111111</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27617,10 +26897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:44</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44399.78731481481</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27692,10 +26970,8 @@
           <t>4967001776</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:30</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44399.78715277778</v>
       </c>
       <c r="I371" t="n">
         <v>30</v>
@@ -27771,10 +27047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:26</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44399.78710648148</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27846,10 +27120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:17</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44399.78700231481</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27922,10 +27194,8 @@
           <t>4966994297</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:12</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44399.78694444444</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27995,10 +27265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:11</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44399.78693287037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28066,10 +27334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:10</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44399.7869212963</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -28137,10 +27403,8 @@
           <t>4967000840</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:10</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44399.7869212963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28216,10 +27480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:53:03</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44399.78684027777</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28291,10 +27553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:39</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44399.7865625</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28370,10 +27630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:39</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44399.7865625</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28466,10 +27724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:35</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44399.78651620371</v>
       </c>
       <c r="I381" t="n">
         <v>154</v>
@@ -28541,10 +27797,8 @@
           <t>4966994297</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:35</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44399.78651620371</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28608,10 +27862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:30</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44399.78645833334</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28687,10 +27939,8 @@
           <t>4966988756</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:24</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44399.78638888889</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28762,10 +28012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:19</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44399.78633101852</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28829,10 +28077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:09</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44399.78621527777</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28892,10 +28138,8 @@
           <t>4966984074</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:52:03</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44399.78614583334</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28971,10 +28215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:49</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44399.7859837963</v>
       </c>
       <c r="I388" t="n">
         <v>7</v>
@@ -29042,10 +28284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:45</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44399.7859375</v>
       </c>
       <c r="I389" t="n">
         <v>254</v>
@@ -29124,10 +28364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:36</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44399.78583333334</v>
       </c>
       <c r="I390" t="n">
         <v>383</v>
@@ -29203,10 +28441,8 @@
           <t>4966986897</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:35</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44399.78582175926</v>
       </c>
       <c r="I391" t="n">
         <v>6</v>
@@ -29274,10 +28510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:32</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44399.78578703704</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29345,10 +28579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44399.78577546297</v>
       </c>
       <c r="I393" t="n">
         <v>100</v>
@@ -29424,10 +28656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:31</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44399.78577546297</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29491,10 +28721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:23</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44399.78568287037</v>
       </c>
       <c r="I395" t="n">
         <v>66</v>
@@ -29574,10 +28802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:22</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44399.7856712963</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29653,10 +28879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:21</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44399.78565972222</v>
       </c>
       <c r="I397" t="n">
         <v>3</v>
@@ -29724,10 +28948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:17</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44399.78561342593</v>
       </c>
       <c r="I398" t="n">
         <v>4</v>
@@ -29795,10 +29017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:16</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44399.78560185185</v>
       </c>
       <c r="I399" t="n">
         <v>5</v>
@@ -29874,10 +29094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:11</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44399.78554398148</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29953,10 +29171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:01</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44399.78542824074</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30032,10 +29248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:51:00</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44399.78541666667</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30111,10 +29325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:54</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44399.78534722222</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30190,10 +29402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:53</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44399.78533564815</v>
       </c>
       <c r="I404" t="n">
         <v>174</v>
@@ -30261,10 +29471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:47</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44399.7852662037</v>
       </c>
       <c r="I405" t="n">
         <v>20</v>
@@ -30340,10 +29548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:46</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44399.78525462963</v>
       </c>
       <c r="I406" t="n">
         <v>661</v>
@@ -30415,10 +29621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:43</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44399.7852199074</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30486,10 +29690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:41</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44399.78519675926</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30557,10 +29759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:40</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44399.78518518519</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30624,10 +29824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:39</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44399.78517361111</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30699,10 +29897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:38</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44399.78516203703</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30774,10 +29970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:36</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44399.78513888889</v>
       </c>
       <c r="I412" t="n">
         <v>9</v>
@@ -30841,10 +30035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-22 18:50:28</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44399.7850462963</v>
       </c>
       <c r="I413" t="n">
         <v>4</v>
